--- a/compilado_scores_docking.xlsx
+++ b/compilado_scores_docking.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ivbie\Documents\2020 - Projetos mestrado\CYFIP2\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9AF05A8-B015-4A78-A89C-EDDC3A06CCCB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C912DDD6-E598-47CE-9AC2-EAAE4D905C0A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{9E27EB85-3080-47DC-922F-C35DF8474335}"/>
   </bookViews>
@@ -1875,8 +1875,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E060DB1E-159F-46E9-ABA9-A9FC37665295}">
   <dimension ref="A1:D2097"/>
   <sheetViews>
-    <sheetView topLeftCell="A2066" workbookViewId="0">
-      <selection activeCell="A2067" sqref="A2067"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
